--- a/bh3/502802024525083574_2021-03-16_22-48-39.xlsx
+++ b/bh3/502802024525083574_2021-03-16_22-48-39.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -546,10 +562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-16 18:21:24</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44302.76486111111</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -621,10 +635,8 @@
           <t>4276450906</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-19 13:54:04</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44274.57921296296</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -700,10 +712,8 @@
           <t>4275648285</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-18 18:37:13</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44273.77584490741</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -771,10 +781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-17 20:23:09</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44272.84940972222</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -850,10 +858,8 @@
           <t>4275803314</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:35:33</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44272.81635416667</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -925,10 +931,8 @@
           <t>4278926230</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-17 19:33:02</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44272.81460648148</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1000,10 +1004,8 @@
           <t>4278645324</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-17 18:31:08</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44272.77162037037</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1075,10 +1077,8 @@
           <t>4275648285</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-17 16:56:41</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44272.7060300926</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1150,10 +1150,8 @@
           <t>4278024329</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-17 15:43:38</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44272.65530092592</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1221,10 +1219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-17 14:42:31</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44272.6128587963</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1284,10 +1280,8 @@
           <t>4277741908</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-17 14:00:35</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44272.58373842593</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1355,10 +1349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-17 13:21:54</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44272.556875</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1422,10 +1414,8 @@
           <t>4277276896</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-17 12:01:38</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44272.50113425926</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1493,10 +1483,8 @@
           <t>4275978836</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-17 11:50:26</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44272.49335648148</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1564,10 +1552,8 @@
           <t>4275803314</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-17 11:21:48</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44272.47347222222</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1643,10 +1629,8 @@
           <t>4277114888</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-17 11:15:50</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44272.4693287037</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1710,10 +1694,8 @@
           <t>4277084284</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-17 11:05:30</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44272.46215277778</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1786,10 +1768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-17 11:02:59</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44272.46040509259</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1857,10 +1837,8 @@
           <t>4276450906</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-17 10:22:53</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44272.43255787037</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1928,10 +1906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-17 10:18:12</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44272.42930555555</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2003,10 +1979,8 @@
           <t>4275648285</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-17 10:17:13</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44272.42862268518</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2066,10 +2040,8 @@
           <t>4276856185</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-17 09:42:52</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44272.40476851852</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2141,10 +2113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-17 09:42:49</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44272.4047337963</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2220,10 +2190,8 @@
           <t>4275820212</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-17 09:40:28</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44272.40310185185</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2301,10 +2269,8 @@
           <t>4276850843</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-17 09:39:15</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44272.40225694444</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2364,10 +2330,8 @@
           <t>4276842799</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-17 09:38:50</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44272.4019675926</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2427,10 +2391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-17 09:38:10</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44272.40150462963</v>
       </c>
       <c r="I28" t="n">
         <v>2</v>
@@ -2494,10 +2456,8 @@
           <t>4276805149</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-17 09:20:12</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44272.38902777778</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2573,10 +2533,8 @@
           <t>4275637450</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-17 09:18:52</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44272.38810185185</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2648,10 +2606,8 @@
           <t>4275735115</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-17 09:15:45</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44272.3859375</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2727,10 +2683,8 @@
           <t>4276781059</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-17 09:12:37</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44272.38376157408</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2802,10 +2756,8 @@
           <t>4276220753</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-17 09:06:09</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44272.37927083333</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2865,10 +2817,8 @@
           <t>4276757063</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-17 09:02:03</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44272.37642361111</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2944,10 +2894,8 @@
           <t>4275612635</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-17 09:01:09</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44272.37579861111</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3023,10 +2971,8 @@
           <t>4276739668</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-17 08:58:03</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44272.37364583334</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3090,10 +3036,8 @@
           <t>4275662853</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-17 08:56:09</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44272.37232638889</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3157,10 +3101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-17 08:55:23</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44272.37179398148</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3224,10 +3166,8 @@
           <t>4276732617</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-17 08:51:40</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44272.36921296296</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3299,10 +3239,8 @@
           <t>4276725948</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-17 08:48:28</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44272.36699074074</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3374,10 +3312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-17 08:39:34</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44272.36081018519</v>
       </c>
       <c r="I41" t="n">
         <v>2</v>
@@ -3449,10 +3385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-17 08:39:20</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44272.36064814815</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3525,10 +3459,8 @@
           <t>4276617602</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-17 08:33:42</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44272.35673611111</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3596,10 +3528,8 @@
           <t>4276677937</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-17 08:28:24</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44272.35305555556</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3676,10 +3606,8 @@
           <t>4275612635</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-17 08:27:46</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44272.35261574074</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3755,10 +3683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-17 08:23:40</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44272.34976851852</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3822,10 +3748,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-17 08:19:43</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44272.34702546296</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3893,10 +3817,8 @@
           <t>4275612635</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-17 08:19:36</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44272.34694444444</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3972,10 +3894,8 @@
           <t>4276634746</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-17 08:08:44</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44272.33939814815</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4039,10 +3959,8 @@
           <t>4276450906</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-17 08:08:16</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44272.33907407407</v>
       </c>
       <c r="I50" t="n">
         <v>3</v>
@@ -4114,10 +4032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-17 08:03:20</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44272.33564814815</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4189,10 +4105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-17 07:57:36</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44272.33166666667</v>
       </c>
       <c r="I52" t="n">
         <v>2</v>
@@ -4264,10 +4178,8 @@
           <t>4276617602</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-17 07:57:31</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44272.3316087963</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4343,10 +4255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-17 07:53:24</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44272.32875</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4422,10 +4332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-17 07:51:27</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44272.32739583333</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4493,10 +4401,8 @@
           <t>4276587511</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-17 07:39:48</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44272.31930555555</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4568,10 +4474,8 @@
           <t>4276590668</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-17 07:38:03</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44272.31809027777</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4639,10 +4543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-17 07:31:00</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44272.31319444445</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4708,10 +4610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-17 07:21:22</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44272.30650462963</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4779,10 +4679,8 @@
           <t>4276450906</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-17 07:17:42</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44272.30395833333</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4846,10 +4744,8 @@
           <t>4275662853</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-17 07:10:41</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44272.29908564815</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4917,10 +4813,8 @@
           <t>4276533763</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-17 06:59:04</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44272.29101851852</v>
       </c>
       <c r="I62" t="n">
         <v>2</v>
@@ -4992,10 +4886,8 @@
           <t>4276524983</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-17 06:56:04</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44272.28893518518</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5059,10 +4951,8 @@
           <t>4276528587</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-17 06:55:40</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44272.28865740741</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5138,10 +5028,8 @@
           <t>4276526210</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-17 06:48:09</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44272.2834375</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5209,10 +5097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-17 06:39:53</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44272.27769675926</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5272,10 +5158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-17 06:35:52</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44272.27490740741</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5339,10 +5223,8 @@
           <t>4275652875</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-17 06:34:55</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44272.27424768519</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5415,10 +5297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-17 06:31:55</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44272.27216435185</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5490,10 +5370,8 @@
           <t>4275735115</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-17 06:24:01</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44272.26667824074</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5565,10 +5443,8 @@
           <t>4276498057</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-17 06:17:33</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44272.2621875</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5644,10 +5520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-17 05:57:48</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44272.24847222222</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5711,10 +5585,8 @@
           <t>4276483489</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-17 05:52:38</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44272.24488425926</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5790,10 +5662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-17 05:35:27</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44272.23295138889</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5869,10 +5739,8 @@
           <t>4275978836</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-17 05:13:13</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44272.21751157408</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5948,10 +5816,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-17 05:06:03</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44272.21253472222</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6019,10 +5885,8 @@
           <t>4276450906</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-17 04:25:31</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44272.18438657407</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6090,10 +5954,8 @@
           <t>4275921738</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-17 04:04:07</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44272.16952546296</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6165,10 +6027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-17 03:24:18</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44272.141875</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6236,10 +6096,8 @@
           <t>4276380138</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-17 02:42:31</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44272.1128587963</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6311,10 +6169,8 @@
           <t>4276251202</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-17 02:28:25</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44272.10306712963</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6386,10 +6242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-17 02:22:38</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44272.09905092593</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6449,10 +6303,8 @@
           <t>4275637450</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-17 02:21:59</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44272.09859953704</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6524,10 +6376,8 @@
           <t>4275803314</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-17 02:10:41</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44272.09075231481</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6595,10 +6445,8 @@
           <t>4276321654</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-17 02:00:47</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44272.08387731481</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6666,10 +6514,8 @@
           <t>4276307300</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-17 01:53:16</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44272.07865740741</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6737,10 +6583,8 @@
           <t>4276296173</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-17 01:46:23</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44272.07387731481</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6808,10 +6652,8 @@
           <t>4275978836</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-17 01:42:50</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44272.07141203704</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6883,10 +6725,8 @@
           <t>4276251202</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-17 01:24:01</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44272.0583449074</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6946,10 +6786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-17 01:23:50</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44272.0582175926</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7018,10 +6856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-17 01:22:05</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44272.05700231482</v>
       </c>
       <c r="I91" t="n">
         <v>3</v>
@@ -7097,10 +6933,8 @@
           <t>4276246063</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-17 01:21:59</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44272.05693287037</v>
       </c>
       <c r="I92" t="n">
         <v>2</v>
@@ -7176,10 +7010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-17 01:21:39</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44272.05670138889</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7251,10 +7083,8 @@
           <t>4275761294</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-17 01:21:13</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44272.05640046296</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7326,10 +7156,8 @@
           <t>4276230844</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-17 01:15:37</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44272.05251157407</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7393,10 +7221,8 @@
           <t>4276219978</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-17 01:14:30</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44272.05173611111</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7473,10 +7299,8 @@
           <t>4276223634</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-17 01:14:25</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44272.05167824074</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7548,10 +7372,8 @@
           <t>4276223293</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-17 01:14:00</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44272.05138888889</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7619,10 +7441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-17 01:13:00</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44272.05069444444</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7691,10 +7511,8 @@
           <t>4276225726</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-17 01:12:05</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44272.05005787037</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7762,10 +7580,8 @@
           <t>4276220753</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-17 01:11:00</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44272.04930555556</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7841,10 +7657,8 @@
           <t>4275761294</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-17 01:07:03</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44272.0465625</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7912,10 +7726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-17 01:03:02</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44272.04377314815</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7979,10 +7791,8 @@
           <t>4276189332</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-17 01:02:17</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44272.04325231481</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8050,10 +7860,8 @@
           <t>4275652875</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-17 01:02:06</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44272.043125</v>
       </c>
       <c r="I105" t="n">
         <v>4</v>
@@ -8121,10 +7929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:55:15</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44272.03836805555</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8193,10 +7999,8 @@
           <t>4276144466</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:47:28</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44272.03296296296</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8264,10 +8068,8 @@
           <t>4276142842</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:46:01</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44272.03195601852</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8331,10 +8133,8 @@
           <t>4276141778</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:45:05</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44272.03130787037</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8402,10 +8202,8 @@
           <t>4275978836</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:44:53</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44272.03116898148</v>
       </c>
       <c r="I110" t="n">
         <v>14</v>
@@ -8473,10 +8271,8 @@
           <t>4275978836</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:44:07</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44272.03063657408</v>
       </c>
       <c r="I111" t="n">
         <v>8</v>
@@ -8544,10 +8340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:43:10</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44272.02997685185</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8619,10 +8413,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:42:03</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44272.02920138889</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8694,10 +8486,8 @@
           <t>4276123690</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:39:18</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44272.02729166667</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8765,10 +8555,8 @@
           <t>4275662853</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:38:45</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44272.02690972222</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8840,10 +8628,8 @@
           <t>4275648285</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:38:07</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44272.02646990741</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8921,10 +8707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:37:55</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44272.02633101852</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8996,10 +8780,8 @@
           <t>4275898689</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:36:48</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44272.02555555556</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9063,10 +8845,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:36:17</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44272.02519675926</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9130,10 +8910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:36:04</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44272.02504629629</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9205,10 +8983,8 @@
           <t>4275648285</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:34:36</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44272.02402777778</v>
       </c>
       <c r="I121" t="n">
         <v>1</v>
@@ -9286,10 +9062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:32:51</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44272.0228125</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9361,10 +9135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:32:35</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44272.02262731481</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9436,10 +9208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:29:48</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44272.02069444444</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9507,10 +9277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:29:02</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44272.02016203704</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9586,10 +9354,8 @@
           <t>4275852500</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:28:11</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44272.01957175926</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9661,10 +9427,8 @@
           <t>4276081253</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:27:46</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44272.0192824074</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9724,10 +9488,8 @@
           <t>4275761294</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:26:50</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44272.01863425926</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9800,10 +9562,8 @@
           <t>4276071399</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:24:53</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44272.01728009259</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9879,10 +9639,8 @@
           <t>4275803314</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:20:39</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44272.01434027778</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9958,10 +9716,8 @@
           <t>4276043893</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:19:14</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44272.01335648148</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10037,10 +9793,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:15:47</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44272.01096064815</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10108,10 +9862,8 @@
           <t>4276032263</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:14:53</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44272.01033564815</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10187,10 +9939,8 @@
           <t>4276021103</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:13:07</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44272.00910879629</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10258,10 +10008,8 @@
           <t>4275761294</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:12:04</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44272.00837962963</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10333,10 +10081,8 @@
           <t>4276017724</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:11:46</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44272.00817129629</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10408,10 +10154,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:11:39</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44272.00809027778</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10483,10 +10227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:11:31</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44272.00799768518</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10558,10 +10300,8 @@
           <t>4275898689</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:09:56</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44272.00689814815</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10621,10 +10361,8 @@
           <t>4276004431</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:09:36</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44272.00666666667</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10688,10 +10426,8 @@
           <t>4275898689</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:09:28</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44272.00657407408</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10751,10 +10487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:09:15</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44272.00642361111</v>
       </c>
       <c r="I142" t="n">
         <v>3</v>
@@ -10818,10 +10552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:08:25</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44272.00584490741</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10893,10 +10625,8 @@
           <t>4275761294</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:08:04</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44272.00560185185</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10960,10 +10690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:08:01</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44272.00556712963</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11035,10 +10763,8 @@
           <t>4275648285</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:06:19</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44272.00438657407</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11106,10 +10832,8 @@
           <t>4275987447</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:05:03</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44272.00350694444</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11181,10 +10905,8 @@
           <t>4275978836</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:04:58</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44272.00344907407</v>
       </c>
       <c r="I148" t="n">
         <v>22</v>
@@ -11260,10 +10982,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:04:46</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44272.00331018519</v>
       </c>
       <c r="I149" t="n">
         <v>18</v>
@@ -11339,10 +11059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:03:28</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44272.00240740741</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11410,10 +11128,8 @@
           <t>4275972505</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-17 00:01:56</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44272.00134259259</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11485,10 +11201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:58:04</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44271.99865740741</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11556,10 +11270,8 @@
           <t>4275943280</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:56:16</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44271.99740740741</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11627,10 +11339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:54:50</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44271.99641203704</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11694,10 +11404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:54:32</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44271.9962037037</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11761,10 +11469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:54:30</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44271.99618055556</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -11832,10 +11538,8 @@
           <t>4275921738</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:51:15</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44271.99392361111</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11911,10 +11615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:50:12</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44271.99319444445</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11982,10 +11684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:48:40</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44271.99212962963</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -12057,10 +11757,8 @@
           <t>4275761294</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:48:31</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44271.99202546296</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12136,10 +11834,8 @@
           <t>4275761294</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:48:16</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44271.99185185185</v>
       </c>
       <c r="I161" t="n">
         <v>1</v>
@@ -12212,10 +11908,8 @@
           <t>4275898689</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:47:16</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44271.99115740741</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12279,10 +11973,8 @@
           <t>4275894502</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:46:44</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44271.99078703704</v>
       </c>
       <c r="I163" t="n">
         <v>9</v>
@@ -12354,10 +12046,8 @@
           <t>4275887977</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:45:44</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44271.99009259259</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12429,10 +12119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:44:07</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44271.9889699074</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12500,10 +12188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:44:00</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44271.98888888889</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12567,10 +12253,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:43:41</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44271.98866898148</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12638,10 +12322,8 @@
           <t>4275881562</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:42:59</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44271.98818287037</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12705,10 +12387,8 @@
           <t>4275877377</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:42:28</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44271.98782407407</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12784,10 +12464,8 @@
           <t>4275833388</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:41:15</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44271.98697916666</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12859,10 +12537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:39:29</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44271.98575231482</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12934,10 +12610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:39:15</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44271.98559027778</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13013,10 +12687,8 @@
           <t>4275854271</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:38:44</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44271.98523148148</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13092,10 +12764,8 @@
           <t>4275855972</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:38:29</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44271.98505787037</v>
       </c>
       <c r="I174" t="n">
         <v>4</v>
@@ -13163,10 +12833,8 @@
           <t>4275612635</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:38:26</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44271.98502314815</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13234,10 +12902,8 @@
           <t>4275852500</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:37:44</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44271.98453703704</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13309,10 +12975,8 @@
           <t>4275844566</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:37:41</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44271.98450231482</v>
       </c>
       <c r="I177" t="n">
         <v>3</v>
@@ -13388,10 +13052,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:37:25</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44271.98431712963</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13459,10 +13121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:37:14</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44271.98418981482</v>
       </c>
       <c r="I179" t="n">
         <v>2</v>
@@ -13538,10 +13198,8 @@
           <t>4275842321</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:36:20</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44271.98356481481</v>
       </c>
       <c r="I180" t="n">
         <v>6</v>
@@ -13617,10 +13275,8 @@
           <t>4275686101</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:36:09</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44271.9834375</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13696,10 +13352,8 @@
           <t>4275735115</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:36:01</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44271.98334490741</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13771,10 +13425,8 @@
           <t>4275735115</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:35:56</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44271.98328703704</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13846,10 +13498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:35:51</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44271.98322916667</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13921,10 +13571,8 @@
           <t>4275662853</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:35:34</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44271.98303240741</v>
       </c>
       <c r="I185" t="n">
         <v>2</v>
@@ -14000,10 +13648,8 @@
           <t>4275838588</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:35:30</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44271.98298611111</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14079,10 +13725,8 @@
           <t>4275837855</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:35:06</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44271.98270833334</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14158,10 +13802,8 @@
           <t>4275837043</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:34:38</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44271.98238425926</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14232,10 +13874,8 @@
           <t>4275833388</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:34:24</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44271.98222222222</v>
       </c>
       <c r="I189" t="n">
         <v>7</v>
@@ -14307,10 +13947,8 @@
           <t>4275828680</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:34:12</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44271.98208333334</v>
       </c>
       <c r="I190" t="n">
         <v>1</v>
@@ -14386,10 +14024,8 @@
           <t>4275648285</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:33:53</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44271.98186342593</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -14455,10 +14091,8 @@
           <t>4275827442</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:33:29</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44271.98158564815</v>
       </c>
       <c r="I192" t="n">
         <v>16</v>
@@ -14526,10 +14160,8 @@
           <t>4275713485</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:32:49</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44271.98112268518</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14605,10 +14237,8 @@
           <t>4275714357</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:32:25</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44271.9808449074</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14676,10 +14306,8 @@
           <t>4275761294</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:31:34</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44271.98025462963</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14755,10 +14383,8 @@
           <t>4275813998</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:31:33</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44271.98024305556</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14830,10 +14456,8 @@
           <t>4275813674</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:31:23</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44271.98012731481</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14905,10 +14529,8 @@
           <t>4275817544</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:31:15</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44271.98003472222</v>
       </c>
       <c r="I198" t="n">
         <v>6</v>
@@ -14976,10 +14598,8 @@
           <t>4275735115</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:31:12</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44271.98</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15051,10 +14671,8 @@
           <t>4275820212</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:31:00</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44271.97986111111</v>
       </c>
       <c r="I200" t="n">
         <v>4</v>
@@ -15130,10 +14748,8 @@
           <t>4275812200</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:30:40</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44271.97962962963</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -15201,10 +14817,8 @@
           <t>4275735115</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:29:38</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44271.97891203704</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15276,10 +14890,8 @@
           <t>4275803314</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:29:11</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44271.97859953704</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -15351,10 +14963,8 @@
           <t>4275761294</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:28:57</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44271.9784375</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15430,10 +15040,8 @@
           <t>4275761294</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:28:51</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44271.97836805556</v>
       </c>
       <c r="I205" t="n">
         <v>4</v>
@@ -15497,10 +15105,8 @@
           <t>4275761294</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:28:41</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44271.97825231482</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15576,10 +15182,8 @@
           <t>4275798200</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:28:32</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44271.97814814815</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15647,10 +15251,8 @@
           <t>4275798004</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:28:25</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44271.97806712963</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -15718,10 +15320,8 @@
           <t>4275794759</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:28:11</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44271.97790509259</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15793,10 +15393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:27:32</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44271.9774537037</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15872,10 +15470,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:27:07</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44271.97716435185</v>
       </c>
       <c r="I211" t="n">
         <v>111</v>
@@ -15939,10 +15535,8 @@
           <t>4275761294</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:26:58</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44271.97706018519</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -16010,10 +15604,8 @@
           <t>4275675690</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:26:34</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44271.97678240741</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16085,10 +15677,8 @@
           <t>4275784571</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:26:26</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44271.97668981482</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16152,10 +15742,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:26:11</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44271.9765162037</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16219,10 +15807,8 @@
           <t>4275790682</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:25:52</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44271.9762962963</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -16298,10 +15884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:25:27</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44271.97600694445</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16369,10 +15953,8 @@
           <t>4275785799</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:25:00</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44271.97569444445</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16440,10 +16022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:24:08</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44271.97509259259</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16507,10 +16087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:22:59</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44271.97429398148</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16578,10 +16156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:22:46</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44271.97414351852</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16650,10 +16226,8 @@
           <t>4275764534</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:22:27</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44271.97392361111</v>
       </c>
       <c r="I222" t="n">
         <v>1</v>
@@ -16721,10 +16295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:22:00</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44271.97361111111</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16800,10 +16372,8 @@
           <t>4275762695</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:21:26</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44271.97321759259</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -16871,10 +16441,8 @@
           <t>4275759036</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:21:16</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44271.97310185185</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16946,10 +16514,8 @@
           <t>4275758473</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:20:58</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44271.97289351852</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17016,10 +16582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:20:43</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44271.9727199074</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17095,10 +16659,8 @@
           <t>4275761294</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:20:38</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44271.97266203703</v>
       </c>
       <c r="I228" t="n">
         <v>21</v>
@@ -17170,10 +16732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:20:28</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44271.9725462963</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17249,10 +16809,8 @@
           <t>4275729304</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:19:59</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44271.97221064815</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17320,10 +16878,8 @@
           <t>4275749954</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:19:52</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44271.97212962963</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17384,10 +16940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:19:30</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44271.971875</v>
       </c>
       <c r="I232" t="n">
         <v>22</v>
@@ -17463,10 +17017,8 @@
           <t>4275648285</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:19:23</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44271.97179398148</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17534,10 +17086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:19:22</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44271.97178240741</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17597,10 +17147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:18:57</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44271.97149305556</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17668,10 +17216,8 @@
           <t>4275729304</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:18:42</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44271.97131944444</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17739,10 +17285,8 @@
           <t>4275735115</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:18:34</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44271.97122685185</v>
       </c>
       <c r="I237" t="n">
         <v>2</v>
@@ -17818,10 +17362,8 @@
           <t>4275750876</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:18:29</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44271.97116898148</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17893,10 +17435,8 @@
           <t>4275750637</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:18:21</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44271.97107638889</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17972,10 +17512,8 @@
           <t>4275729304</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:18:17</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44271.97103009259</v>
       </c>
       <c r="I240" t="n">
         <v>3</v>
@@ -18039,10 +17577,8 @@
           <t>4275746546</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:17:59</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44271.97082175926</v>
       </c>
       <c r="I241" t="n">
         <v>18</v>
@@ -18102,10 +17638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:17:39</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44271.97059027778</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18173,10 +17707,8 @@
           <t>4275741642</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:17:09</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44271.97024305556</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18252,10 +17784,8 @@
           <t>4275648285</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:16:47</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44271.96998842592</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18323,10 +17853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:16:38</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44271.96988425926</v>
       </c>
       <c r="I245" t="n">
         <v>1</v>
@@ -18386,10 +17914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:16:11</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44271.96957175926</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18453,10 +17979,8 @@
           <t>4275732881</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:15:52</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44271.96935185185</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18516,10 +18040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:15:49</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44271.96931712963</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18595,10 +18117,8 @@
           <t>4275729304</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:15:49</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44271.96931712963</v>
       </c>
       <c r="I249" t="n">
         <v>2</v>
@@ -18666,10 +18186,8 @@
           <t>4275648285</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:15:44</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44271.96925925926</v>
       </c>
       <c r="I250" t="n">
         <v>9</v>
@@ -18741,10 +18259,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:15:27</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44271.9690625</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18812,10 +18328,8 @@
           <t>4275735490</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:15:22</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44271.96900462963</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18891,10 +18405,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:15:15</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44271.96892361111</v>
       </c>
       <c r="I253" t="n">
         <v>5</v>
@@ -18966,10 +18478,8 @@
           <t>4275735115</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:15:09</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44271.96885416667</v>
       </c>
       <c r="I254" t="n">
         <v>11</v>
@@ -19041,10 +18551,8 @@
           <t>4275713485</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:15:09</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44271.96885416667</v>
       </c>
       <c r="I255" t="n">
         <v>16</v>
@@ -19116,10 +18624,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:14:53</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44271.96866898148</v>
       </c>
       <c r="I256" t="n">
         <v>4</v>
@@ -19183,10 +18689,8 @@
           <t>4275727126</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:14:36</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44271.96847222222</v>
       </c>
       <c r="I257" t="n">
         <v>1</v>
@@ -19262,10 +18766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:14:29</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44271.96839120371</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19329,10 +18831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:13:51</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44271.96795138889</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19396,10 +18896,8 @@
           <t>4275713485</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:13:26</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44271.96766203704</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -19463,10 +18961,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:13:16</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44271.9675462963</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19542,10 +19038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:13:10</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44271.96747685185</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19613,10 +19107,8 @@
           <t>4275714357</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:13:04</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44271.96740740741</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19684,10 +19176,8 @@
           <t>4275714072</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:12:55</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44271.96730324074</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19747,10 +19237,8 @@
           <t>4275717428</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:12:48</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44271.96722222222</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19810,10 +19298,8 @@
           <t>4275713485</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:12:35</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44271.96707175926</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19889,10 +19375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:12:29</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44271.96700231481</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19964,10 +19448,8 @@
           <t>4275662853</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:12:25</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44271.96695601852</v>
       </c>
       <c r="I268" t="n">
         <v>16</v>
@@ -20031,10 +19513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:11:52</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44271.96657407407</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -20106,10 +19586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:11:37</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44271.96640046296</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20181,10 +19659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:11:28</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44271.9662962963</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20248,10 +19724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:11:20</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44271.96620370371</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20323,10 +19797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:11:10</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44271.96608796297</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20398,10 +19870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:10:46</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44271.96581018518</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20465,10 +19935,8 @@
           <t>4275702817</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:10:15</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44271.96545138889</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20540,10 +20008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:10:04</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44271.96532407407</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20607,10 +20073,8 @@
           <t>4275686101</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:09:54</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44271.96520833333</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20674,10 +20138,8 @@
           <t>4275705841</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:09:47</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44271.96512731481</v>
       </c>
       <c r="I278" t="n">
         <v>4</v>
@@ -20749,10 +20211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:09:08</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44271.96467592593</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20820,10 +20280,8 @@
           <t>4275700546</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:09:00</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44271.96458333333</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -20891,10 +20349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:08:27</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44271.96420138889</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20962,10 +20418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:08:10</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44271.96400462963</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21033,10 +20487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:08:07</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44271.96396990741</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21100,10 +20552,8 @@
           <t>4275652875</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:07:38</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44271.96363425926</v>
       </c>
       <c r="I284" t="n">
         <v>6</v>
@@ -21175,10 +20625,8 @@
           <t>4275652875</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:07:37</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44271.96362268519</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21246,10 +20694,8 @@
           <t>4275652875</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:07:18</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44271.96340277778</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21313,10 +20759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:07:16</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44271.96337962963</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21392,10 +20836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:07:15</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44271.96336805556</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21459,10 +20901,8 @@
           <t>4275683792</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:07:13</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44271.96334490741</v>
       </c>
       <c r="I289" t="n">
         <v>3</v>
@@ -21538,10 +20978,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:06:41</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44271.96297453704</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21609,10 +21047,8 @@
           <t>4275686101</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:06:37</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44271.96292824074</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21672,10 +21108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:06:22</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44271.96275462963</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21748,10 +21182,8 @@
           <t>4275682218</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:06:22</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44271.96275462963</v>
       </c>
       <c r="I293" t="n">
         <v>10</v>
@@ -21819,10 +21251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:06:10</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44271.96261574074</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21886,10 +21316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:06:02</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44271.96252314815</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21965,10 +21393,8 @@
           <t>4275681285</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:05:51</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44271.96239583333</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -22028,10 +21454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:05:46</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44271.96233796296</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22099,10 +21523,8 @@
           <t>4275662853</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:05:36</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44271.96222222222</v>
       </c>
       <c r="I298" t="n">
         <v>8</v>
@@ -22174,10 +21596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:05:30</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44271.96215277778</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22241,10 +21661,8 @@
           <t>4275673963</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:05:30</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44271.96215277778</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22308,10 +21726,8 @@
           <t>4275680593</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:05:29</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44271.9621412037</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22379,10 +21795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:05:23</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44271.96207175926</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22458,10 +21872,8 @@
           <t>4275673714</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:05:22</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44271.96206018519</v>
       </c>
       <c r="I303" t="n">
         <v>1</v>
@@ -22530,10 +21942,8 @@
           <t>4275612635</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:05:15</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44271.96197916667</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22601,10 +22011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:04:57</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44271.96177083333</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22676,10 +22084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:04:53</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44271.96172453704</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22755,10 +22161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:04:43</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44271.96160879629</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22826,10 +22230,8 @@
           <t>4275668886</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:04:33</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44271.96149305555</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22893,10 +22295,8 @@
           <t>4275675690</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:04:03</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44271.96114583333</v>
       </c>
       <c r="I309" t="n">
         <v>4</v>
@@ -22956,10 +22356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:03:17</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44271.96061342592</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23027,10 +22425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:03:06</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44271.96048611111</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23106,10 +22502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:02:55</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44271.9603587963</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23179,10 +22573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:02:53</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44271.96033564815</v>
       </c>
       <c r="I313" t="n">
         <v>1</v>
@@ -23250,10 +22642,8 @@
           <t>4275663300</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:02:40</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44271.96018518518</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23327,10 +22717,8 @@
           <t>4275665417</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:02:38</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44271.96016203704</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23394,10 +22782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:02:28</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44271.9600462963</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23457,10 +22843,8 @@
           <t>4275612635</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:02:27</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44271.96003472222</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23536,10 +22920,8 @@
           <t>4275662853</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:02:25</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44271.96001157408</v>
       </c>
       <c r="I318" t="n">
         <v>5</v>
@@ -23607,10 +22989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:02:10</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44271.95983796296</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23678,10 +23058,8 @@
           <t>4275654561</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:02:09</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44271.95982638889</v>
       </c>
       <c r="I320" t="n">
         <v>4</v>
@@ -23746,10 +23124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:02:04</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44271.95976851852</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -23813,10 +23189,8 @@
           <t>4275662117</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:02:00</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44271.95972222222</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23884,10 +23258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:01:47</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44271.95957175926</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23963,10 +23335,8 @@
           <t>4275660790</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:01:14</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44271.95918981481</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24049,10 +23419,8 @@
           <t>4275652875</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:01:13</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44271.95917824074</v>
       </c>
       <c r="I325" t="n">
         <v>76</v>
@@ -24116,10 +23484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:01:10</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44271.95914351852</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24191,10 +23557,8 @@
           <t>4275660373</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:01:01</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44271.95903935185</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24271,10 +23635,8 @@
           <t>4275612635</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:00:41</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44271.95880787037</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24342,10 +23704,8 @@
           <t>4275649219</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:00:22</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44271.95858796296</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24413,10 +23773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:00:12</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44271.95847222222</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24488,10 +23846,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:00:12</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44271.95847222222</v>
       </c>
       <c r="I331" t="n">
         <v>4</v>
@@ -24559,10 +23915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-16 23:00:07</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44271.95841435185</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24630,10 +23984,8 @@
           <t>4275648285</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:59:51</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44271.95822916667</v>
       </c>
       <c r="I333" t="n">
         <v>102</v>
@@ -24701,10 +24053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:59:40</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44271.95810185185</v>
       </c>
       <c r="I334" t="n">
         <v>1</v>
@@ -24776,10 +24126,8 @@
           <t>4275639700</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:59:32</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44271.95800925926</v>
       </c>
       <c r="I335" t="n">
         <v>8</v>
@@ -24855,10 +24203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:59:27</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44271.95795138889</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24930,10 +24276,8 @@
           <t>4275638486</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:58:51</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44271.95753472222</v>
       </c>
       <c r="I337" t="n">
         <v>6</v>
@@ -25009,10 +24353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:58:26</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44271.95724537037</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25076,10 +24418,8 @@
           <t>4275637758</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:58:26</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44271.95724537037</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -25148,10 +24488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:58:24</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44271.95722222222</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25223,10 +24561,8 @@
           <t>4275637450</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:58:16</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44271.95712962963</v>
       </c>
       <c r="I341" t="n">
         <v>19</v>
@@ -25309,10 +24645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:58:11</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44271.95707175926</v>
       </c>
       <c r="I342" t="n">
         <v>19</v>
@@ -25384,10 +24718,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:57:55</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44271.95688657407</v>
       </c>
       <c r="I343" t="n">
         <v>944</v>
@@ -25456,10 +24788,8 @@
           <t>4275634403</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:57:34</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44271.95664351852</v>
       </c>
       <c r="I344" t="n">
         <v>9</v>
@@ -25531,10 +24861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:57:33</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44271.95663194444</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25606,10 +24934,8 @@
           <t>4275636156</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:57:33</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44271.95663194444</v>
       </c>
       <c r="I346" t="n">
         <v>33</v>
@@ -25685,10 +25011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:57:25</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44271.95653935185</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25765,10 +25089,8 @@
           <t>4275612635</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:57:22</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44271.95650462963</v>
       </c>
       <c r="I348" t="n">
         <v>9</v>
@@ -25844,10 +25166,8 @@
           <t>4275635078</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:56:58</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44271.95622685185</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25923,10 +25243,8 @@
           <t>4275635029</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:56:56</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44271.9562037037</v>
       </c>
       <c r="I350" t="n">
         <v>36</v>
@@ -25997,10 +25315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:56:55</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44271.95619212963</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26072,10 +25388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:56:36</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44271.95597222223</v>
       </c>
       <c r="I352" t="n">
         <v>92</v>
@@ -26143,10 +25457,8 @@
           <t>4275627551</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:56:31</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44271.95591435185</v>
       </c>
       <c r="I353" t="n">
         <v>132</v>
@@ -26214,10 +25526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:56:27</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44271.95586805556</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26281,10 +25591,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:56:20</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44271.95578703703</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26360,10 +25668,8 @@
           <t>4275608662</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:56:20</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44271.95578703703</v>
       </c>
       <c r="I356" t="n">
         <v>1</v>
@@ -26439,10 +25745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:56:14</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44271.95571759259</v>
       </c>
       <c r="I357" t="n">
         <v>1</v>
@@ -26518,10 +25822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:56:11</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44271.95568287037</v>
       </c>
       <c r="I358" t="n">
         <v>180</v>
@@ -26585,10 +25887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:55:57</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44271.95552083333</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26664,10 +25964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:55:52</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44271.95546296296</v>
       </c>
       <c r="I360" t="n">
         <v>114</v>
@@ -26739,10 +26037,8 @@
           <t>4275631131</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:55:45</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44271.95538194444</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -26806,10 +26102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:55:37</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44271.95528935185</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26881,10 +26175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:55:16</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44271.95504629629</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26960,10 +26252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:54:54</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44271.95479166666</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27027,10 +26317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:54:50</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44271.95474537037</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27106,10 +26394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:54:44</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44271.95467592592</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27177,10 +26463,8 @@
           <t>4275620931</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:54:41</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44271.9546412037</v>
       </c>
       <c r="I367" t="n">
         <v>55</v>
@@ -27248,10 +26532,8 @@
           <t>4275613902</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:54:25</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44271.95445601852</v>
       </c>
       <c r="I368" t="n">
         <v>3</v>
@@ -27327,10 +26609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:54:10</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44271.95428240741</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27394,10 +26674,8 @@
           <t>4275605739</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:53:53</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44271.95408564815</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27465,10 +26743,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:53:51</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44271.9540625</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27532,10 +26808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:53:44</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44271.95398148148</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27599,10 +26873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:53:43</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44271.95396990741</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27678,10 +26950,8 @@
           <t>4275612635</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:53:42</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44271.95395833333</v>
       </c>
       <c r="I374" t="n">
         <v>6</v>
@@ -27757,10 +27027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:53:31</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44271.95383101852</v>
       </c>
       <c r="I375" t="n">
         <v>15</v>
@@ -27828,10 +27096,8 @@
           <t>4275608662</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:53:27</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44271.95378472222</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27899,10 +27165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:53:25</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44271.95376157408</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27966,10 +27230,8 @@
           <t>4275616765</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:53:23</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44271.95373842592</v>
       </c>
       <c r="I378" t="n">
         <v>4</v>
@@ -28037,10 +27299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:53:20</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44271.9537037037</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -28116,10 +27376,8 @@
           <t>4275608452</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:53:20</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44271.9537037037</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28187,10 +27445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:53:14</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44271.95363425926</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28250,10 +27506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:53:12</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44271.95361111111</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28321,10 +27575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:53:11</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44271.95359953704</v>
       </c>
       <c r="I383" t="n">
         <v>7</v>
@@ -28400,10 +27652,8 @@
           <t>4275608056</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:53:08</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44271.95356481482</v>
       </c>
       <c r="I384" t="n">
         <v>25</v>
@@ -28479,10 +27729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:53:06</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44271.95354166667</v>
       </c>
       <c r="I385" t="n">
         <v>78</v>
@@ -28550,10 +27798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:53:05</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44271.95353009259</v>
       </c>
       <c r="I386" t="n">
         <v>3</v>
@@ -28629,10 +27875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:52:56</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44271.95342592592</v>
       </c>
       <c r="I387" t="n">
         <v>2</v>
@@ -28704,10 +27948,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:52:47</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44271.95332175926</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28783,10 +28025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:52:40</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44271.95324074074</v>
       </c>
       <c r="I389" t="n">
         <v>2</v>
@@ -28858,10 +28098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:52:37</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44271.95320601852</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28925,10 +28163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:52:33</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44271.95315972222</v>
       </c>
       <c r="I391" t="n">
         <v>460</v>
@@ -28992,10 +28228,8 @@
           <t>4275607025</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:52:33</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44271.95315972222</v>
       </c>
       <c r="I392" t="n">
         <v>13</v>
@@ -29072,10 +28306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:52:29</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44271.95311342592</v>
       </c>
       <c r="I393" t="n">
         <v>18</v>
@@ -29139,10 +28371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:52:25</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44271.95306712963</v>
       </c>
       <c r="I394" t="n">
         <v>1156</v>
@@ -29210,10 +28440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:52:17</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44271.95297453704</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29289,10 +28517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:52:06</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44271.95284722222</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29364,10 +28590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:51:57</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44271.95274305555</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29445,10 +28669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:51:55</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44271.95271990741</v>
       </c>
       <c r="I398" t="n">
         <v>1</v>
@@ -29512,10 +28734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:51:55</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44271.95271990741</v>
       </c>
       <c r="I399" t="n">
         <v>1</v>
@@ -29583,10 +28803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:51:52</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44271.95268518518</v>
       </c>
       <c r="I400" t="n">
         <v>262</v>
@@ -29658,10 +28876,8 @@
           <t>4275605739</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:51:51</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44271.95267361111</v>
       </c>
       <c r="I401" t="n">
         <v>5</v>
@@ -29737,10 +28953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:51:50</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44271.95266203704</v>
       </c>
       <c r="I402" t="n">
         <v>9</v>
@@ -29808,10 +29022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:51:41</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44271.95255787037</v>
       </c>
       <c r="I403" t="n">
         <v>7</v>
@@ -29875,10 +29087,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:51:35</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44271.95248842592</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29946,10 +29156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:51:31</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44271.95244212963</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30017,10 +29225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:51:31</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44271.95244212963</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30084,10 +29290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:51:24</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44271.95236111111</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30155,10 +29359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:51:21</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44271.95232638889</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30234,10 +29436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:51:20</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44271.95231481481</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30309,10 +29509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:51:10</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44271.95219907408</v>
       </c>
       <c r="I410" t="n">
         <v>1</v>
@@ -30388,10 +29586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:51:05</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44271.95214120371</v>
       </c>
       <c r="I411" t="n">
         <v>2</v>
@@ -30467,10 +29663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:50:59</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44271.95207175926</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30538,10 +29732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:50:51</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44271.95197916667</v>
       </c>
       <c r="I413" t="n">
         <v>38</v>
@@ -30605,10 +29797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:50:51</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44271.95197916667</v>
       </c>
       <c r="I414" t="n">
         <v>1</v>
@@ -30680,10 +29870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:50:50</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44271.95196759259</v>
       </c>
       <c r="I415" t="n">
         <v>8</v>
@@ -30751,10 +29939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:50:47</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44271.95193287037</v>
       </c>
       <c r="I416" t="n">
         <v>6</v>
@@ -30814,10 +30000,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:50:42</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44271.951875</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30885,10 +30069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:50:41</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44271.95186342593</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30964,10 +30146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:50:40</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44271.95185185185</v>
       </c>
       <c r="I419" t="n">
         <v>314</v>
@@ -31035,10 +30215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:50:37</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44271.95181712963</v>
       </c>
       <c r="I420" t="n">
         <v>2</v>
@@ -31110,10 +30288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:50:35</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44271.95179398148</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31185,10 +30361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:50:32</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44271.95175925926</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31264,10 +30438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:50:28</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44271.95171296296</v>
       </c>
       <c r="I423" t="n">
         <v>1</v>
@@ -31343,10 +30515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-03-16 22:50:25</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44271.95167824074</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
